--- a/Outputs/Annotation/QC.xlsx
+++ b/Outputs/Annotation/QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoshsMacbook2015/Desktop/DTC-metabolomics-2026/Outputs/Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955466A8-1956-3E49-96F4-816FAD08663D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC92778-D5EF-3645-984E-3E657B68E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QC" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QC!$A$1:$Y$291</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4870,40 +4871,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6767,13 +6746,13 @@
       <c r="A21" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>1333</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -6842,13 +6821,13 @@
       <c r="A22" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>1333</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -7201,13 +7180,13 @@
       <c r="A27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>1476</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -7276,13 +7255,13 @@
       <c r="A28" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>1476</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>1476</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -7418,13 +7397,13 @@
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>1474</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -7493,13 +7472,13 @@
       <c r="A31" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>1474</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>1474</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -7978,11 +7957,11 @@
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -8047,11 +8026,11 @@
       <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -9453,13 +9432,13 @@
       <c r="A59" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="5" t="s">
         <v>1461</v>
       </c>
       <c r="E59" s="5"/>
@@ -10304,13 +10283,13 @@
       <c r="A72" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>1461</v>
       </c>
       <c r="E72" s="5"/>
@@ -10501,13 +10480,13 @@
       <c r="A75" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>1465</v>
       </c>
       <c r="E75" s="5"/>
@@ -11023,13 +11002,13 @@
       <c r="A83" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>1465</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>1465</v>
       </c>
       <c r="E83" s="5"/>
@@ -12280,11 +12259,11 @@
       <c r="A102" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6" t="s">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>358</v>
       </c>
       <c r="E102" s="5"/>
@@ -12483,11 +12462,11 @@
       <c r="A105" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6" t="s">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>358</v>
       </c>
       <c r="E105" s="5"/>
@@ -13269,11 +13248,11 @@
       <c r="A117" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="6" t="s">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>382</v>
       </c>
       <c r="E117" s="5"/>
@@ -13334,11 +13313,11 @@
       <c r="A118" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6" t="s">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>382</v>
       </c>
       <c r="E118" s="5"/>
@@ -14382,29 +14361,29 @@
       <sortCondition ref="E1:E291"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="K1:K1048576 C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+  <conditionalFormatting sqref="B90:B102 A1:A1048576 B104:B106 D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103 B107:B109 B1 B3:B89 B119:B122 B129:B1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B110:B111">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:B118">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123:B128">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103 B107:B109 B1 B3:B89 B119:B122 B129:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B102 A1:A1048576 B104:B106 D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576 C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14413,7 +14392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B221D-782F-F640-83FF-0983BC47BF22}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
@@ -14424,7 +14403,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>589</v>
       </c>
@@ -14435,7 +14414,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -14445,9 +14424,8 @@
       <c r="C2" s="3" t="s">
         <v>1511</v>
       </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -14457,9 +14435,8 @@
       <c r="C3" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -14469,9 +14446,8 @@
       <c r="C4" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>594</v>
       </c>
@@ -14481,9 +14457,8 @@
       <c r="C5" s="3" t="s">
         <v>1514</v>
       </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>110</v>
       </c>
@@ -14493,9 +14468,8 @@
       <c r="C6" s="3" t="s">
         <v>1515</v>
       </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>538</v>
       </c>
@@ -14505,9 +14479,8 @@
       <c r="C7" s="3" t="s">
         <v>1516</v>
       </c>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>590</v>
       </c>
@@ -14517,9 +14490,8 @@
       <c r="C8" s="3" t="s">
         <v>1518</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>108</v>
       </c>
@@ -14529,9 +14501,8 @@
       <c r="C9" s="3" t="s">
         <v>1519</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1449</v>
       </c>
@@ -14541,9 +14512,8 @@
       <c r="C10" s="3" t="s">
         <v>1520</v>
       </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -14553,9 +14523,8 @@
       <c r="C11" s="3" t="s">
         <v>1521</v>
       </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -14565,9 +14534,8 @@
       <c r="C12" s="3" t="s">
         <v>1522</v>
       </c>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1459</v>
       </c>
@@ -14578,7 +14546,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>1333</v>
       </c>
@@ -14589,7 +14557,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>146</v>
       </c>
@@ -14600,7 +14568,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>1490</v>
       </c>
@@ -15030,10 +14998,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" t="s">
         <v>1573</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -24512,10 +24480,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C166">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Outputs/Annotation/QC.xlsx
+++ b/Outputs/Annotation/QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoshsMacbook2015/Desktop/DTC-metabolomics-2026/Outputs/Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC92778-D5EF-3645-984E-3E657B68E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786E247A-43F4-D345-9CD1-60CC69B9EC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QC" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QC!$A$1:$Y$291</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5287,7 +5286,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:E5"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Outputs/Annotation/QC.xlsx
+++ b/Outputs/Annotation/QC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoshsMacbook2015/Desktop/DTC-metabolomics-2026/Outputs/Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12410D60-55D1-9146-BC6C-4E26A54F13B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F979C3F9-31B3-1440-BFE7-EA16927AA8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4680,9 +4680,6 @@
     <t>9,10-Epoxystearate†</t>
   </si>
   <si>
-    <t>9-O-Acetyl-Neu5Ac†</t>
-  </si>
-  <si>
     <t>N-Acetyl-9-O-acetylneuraminate (9-O-Acetyl-Neu5Ac)‡</t>
   </si>
   <si>
@@ -4732,6 +4729,9 @@
   </si>
   <si>
     <t>Oleate*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-O-Acetyl-Neu5Ac </t>
   </si>
 </sst>
 </file>
@@ -4807,23 +4807,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4851,6 +4835,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5158,7 +5150,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5279,7 +5271,7 @@
         <v>1546</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1544</v>
@@ -5351,7 +5343,7 @@
         <v>1546</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>1544</v>
@@ -5423,10 +5415,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>1510</v>
@@ -5497,10 +5489,10 @@
         <v>404</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>1509</v>
@@ -5569,10 +5561,10 @@
         <v>94</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1509</v>
@@ -5639,10 +5631,10 @@
         <v>381</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1511</v>
@@ -5711,10 +5703,10 @@
         <v>189</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1508</v>
@@ -5787,10 +5779,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>1513</v>
@@ -5863,10 +5855,10 @@
         <v>132</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1513</v>
@@ -5937,10 +5929,10 @@
         <v>381</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1511</v>
@@ -6009,10 +6001,10 @@
         <v>94</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>1509</v>
@@ -6079,10 +6071,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>1510</v>
@@ -6153,10 +6145,10 @@
         <v>404</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>1509</v>
@@ -6225,10 +6217,10 @@
         <v>189</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>1508</v>
@@ -6303,10 +6295,10 @@
         <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>1513</v>
@@ -6381,10 +6373,10 @@
         <v>132</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1513</v>
@@ -6459,7 +6451,7 @@
         <v>541</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>1489</v>
@@ -6533,10 +6525,10 @@
         <v>370</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1547</v>
+        <v>1564</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>1515</v>
@@ -14779,7 +14771,7 @@
   </sheetData>
   <autoFilter ref="A1:Z133" xr:uid="{624A435F-8BE2-214B-91C7-3973CD222FA7}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z133">
-      <sortCondition sortBy="cellColor" ref="C1:C133" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="C1:C133" dxfId="3"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C1:C1048576">
@@ -24256,10 +24248,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C166">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Outputs/Annotation/QC.xlsx
+++ b/Outputs/Annotation/QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoshsMacbook2015/Desktop/DTC-metabolomics-2026/Outputs/Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B7EEC-B52C-154E-B0BF-512E600C4492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA4C92B-048F-F245-B6F4-271E97636794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-11660" windowWidth="21600" windowHeight="37920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-11640" windowWidth="21600" windowHeight="36920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QC" sheetId="3" r:id="rId1"/>
@@ -4833,9 +4833,6 @@
     <t>Ribose 5-P</t>
   </si>
   <si>
-    <t>differentiated thyroid cancers</t>
-  </si>
-  <si>
     <t>acetyl phosphate</t>
   </si>
   <si>
@@ -4906,6 +4903,9 @@
   </si>
   <si>
     <t>sn-glycero-3-phospho-1-inositol</t>
+  </si>
+  <si>
+    <t>differentiated thyroid cancer</t>
   </si>
 </sst>
 </file>
@@ -4971,15 +4971,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14976,12 +14973,12 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="6.5" bestFit="1" customWidth="1"/>
@@ -14989,10 +14986,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1323</v>
@@ -15011,11 +15008,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1478</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1005</v>
@@ -15032,11 +15029,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1564</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1062</v>
@@ -15049,11 +15046,11 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>1592</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1087</v>
@@ -15066,7 +15063,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>1566</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -15083,11 +15080,11 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>615</v>
@@ -15102,7 +15099,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>1567</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -15117,11 +15114,11 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>1593</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -15132,11 +15129,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>1589</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -15147,11 +15144,11 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>537</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1264</v>
@@ -15164,11 +15161,11 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>1595</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1597</v>
+        <v>1621</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -15179,11 +15176,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>1590</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -15194,7 +15191,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>1568</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -15209,7 +15206,7 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>1569</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -15224,7 +15221,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>1570</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -15239,11 +15236,11 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -15254,11 +15251,11 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>607</v>
@@ -15271,11 +15268,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>1451</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>914</v>
@@ -15288,11 +15285,11 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>1585</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -15303,7 +15300,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>1571</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -15318,11 +15315,11 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>1490</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>1138</v>
@@ -15337,11 +15334,11 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>1459</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>715</v>
@@ -15356,11 +15353,11 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>1453</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>777</v>
@@ -15373,11 +15370,11 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>1458</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>703</v>
@@ -15392,7 +15389,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>1572</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -15409,7 +15406,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>1573</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -15424,11 +15421,11 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>1596</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>912</v>
@@ -15441,11 +15438,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>589</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>651</v>
@@ -15462,11 +15459,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>1591</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -15477,11 +15474,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>1587</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -15492,11 +15489,11 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>1594</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -15507,11 +15504,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>1588</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>

--- a/Outputs/Annotation/QC.xlsx
+++ b/Outputs/Annotation/QC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoshsMacbook2015/Desktop/DTC-metabolomics-2026/Outputs/Annotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdp2019/Desktop/DTC-metabolomics-2026/Outputs/Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA4C92B-048F-F245-B6F4-271E97636794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D5235F-56F5-BB4A-8A06-1F6857840FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-11640" windowWidth="21600" windowHeight="36920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QC" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="1622">
   <si>
     <t>Identified Name</t>
   </si>
@@ -5334,9 +5334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624A435F-8BE2-214B-91C7-3973CD222FA7}">
   <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6856,7 +6856,9 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
         <v>7</v>
@@ -14972,8 +14974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EDF12F-ACFA-854C-BF7A-D84A1BAF082E}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
